--- a/6-resampling/6-resampling.xlsx
+++ b/6-resampling/6-resampling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\6-resampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEBEC2C-FD75-44C1-8F67-63142E90EC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54132C06-EDF1-4F14-B8FC-7D8D27B69127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,47 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -49,6 +86,11 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>sales_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
 </file>
 
@@ -119,6 +161,244 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="12" c="3">
+    <v t="s"/>
+    <v t="s">Date</v>
+    <v t="s">Sales</v>
+    <v>0</v>
+    <v t="r">0</v>
+    <v>52.48</v>
+    <v>1</v>
+    <v t="r">1</v>
+    <v>49.34</v>
+    <v>2</v>
+    <v t="r">2</v>
+    <v>53.31</v>
+    <v>3</v>
+    <v t="r">3</v>
+    <v>57.72</v>
+    <v>4</v>
+    <v t="r">4</v>
+    <v>48.97</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>361</v>
+    <v t="r">5</v>
+    <v>70.03</v>
+    <v>362</v>
+    <v t="r">6</v>
+    <v>61.85</v>
+    <v>363</v>
+    <v t="r">7</v>
+    <v>64.44</v>
+    <v>364</v>
+    <v t="r">8</v>
+    <v>65.92</v>
+    <v>365</v>
+    <v t="r">9</v>
+    <v>60.49</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
+  <rv s="0">
+    <fb>44927</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44928</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44929</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44930</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44931</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45288</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45289</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45290</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45291</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45292</fb>
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>10</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">          Date  Sales
+0   2023-01-01  52.48
+1   2023-01-02  49.34
+2   2023-01-03  53.31
+3   2023-01-04  57.72
+4   2023-01-05  48.97
+..         ...    ...
+361 2023-12-28  70.03
+362 2023-12-29  61.85
+363 2023-12-30  64.44
+364 2023-12-31  65.92
+365 2024-0...</v>
+    <v>11</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="4">
+    <spb s="0">
+      <v>366</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </x:dxf>
+  </dxfs>
+  <richStyles>
+    <rSty dxfid="0"/>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -490,15 +770,19 @@
     <col min="1" max="1" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D1" t="e" cm="1" vm="1">
+        <f t="array" ref="D1">_xlfn._xlws.PY(0,1,daily_sales[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -506,7 +790,7 @@
         <v>52.48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44928</v>
       </c>
@@ -514,7 +798,7 @@
         <v>49.34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44929</v>
       </c>
@@ -522,7 +806,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44930</v>
       </c>
@@ -530,7 +814,7 @@
         <v>57.72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44931</v>
       </c>
@@ -538,7 +822,7 @@
         <v>48.97</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44932</v>
       </c>
@@ -546,7 +830,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44933</v>
       </c>
@@ -554,7 +838,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44934</v>
       </c>
@@ -562,7 +846,7 @@
         <v>54.08</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44935</v>
       </c>
@@ -570,7 +854,7 @@
         <v>47.93</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44936</v>
       </c>
@@ -578,7 +862,7 @@
         <v>53.02</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44937</v>
       </c>
@@ -586,7 +870,7 @@
         <v>48.03</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44938</v>
       </c>
@@ -594,7 +878,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44939</v>
       </c>
@@ -602,7 +886,7 @@
         <v>51.62</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44940</v>
       </c>
@@ -610,7 +894,7 @@
         <v>40.880000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44941</v>
       </c>
